--- a/data/trans_camb/P31_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_4_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,29</t>
+          <t>-2,7; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -0,93</t>
+          <t>-8,39; -1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,41</t>
+          <t>-7,05; 0,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,16</t>
+          <t>-0,15; 7,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,13</t>
+          <t>-1,22; 4,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; -0,86</t>
+          <t>-1,32; 1,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 0,17</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 1,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 3,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 2,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 2,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; -0,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 0,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 4,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 3,01</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,66</t>
+          <t>-2,9; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -1,03</t>
+          <t>-9,09; -1,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,52</t>
+          <t>-7,5; 0,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,21</t>
+          <t>-0,16; 8,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,28</t>
+          <t>-1,31; 5,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,92</t>
+          <t>-1,34; 1,66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 1,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 3,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 2,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 2,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; -1,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 0,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 3,23</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,27</t>
+          <t>-2,11; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,44</t>
+          <t>-6,38; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,55</t>
+          <t>-6,71; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,32</t>
+          <t>-2,19; 9,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,04</t>
+          <t>-3,35; 7,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,22</t>
+          <t>-0,06; 3,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 3,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 3,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 2,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 3,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 2,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 2,71</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 4,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 4,36</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 7,13</t>
+          <t>-2,29; 6,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 2,76</t>
+          <t>-6,78; 2,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,73</t>
+          <t>-7,31; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,51</t>
+          <t>-2,45; 10,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,45</t>
+          <t>-3,59; 8,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,4</t>
+          <t>-0,04; 4,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 3,73</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 3,31</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 2,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 4,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 2,58</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 2,95</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 5,27</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 4,77</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,5</t>
+          <t>-0,68; 8,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,39</t>
+          <t>-7,45; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,71</t>
+          <t>-10,06; 3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,72</t>
+          <t>-4,62; 0,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 2,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 1,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 3,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 2,33</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 1,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 9,42</t>
+          <t>-0,67; 9,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 5,82</t>
+          <t>-7,71; 4,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,72</t>
+          <t>-10,35; 4,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,85</t>
+          <t>-4,63; 0,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 2,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 1,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,45</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 1,7</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>0,62</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,75</t>
+          <t>-0,9; 3,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -0,38</t>
+          <t>-6,0; -0,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,03</t>
+          <t>-5,37; 0,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,23</t>
+          <t>-0,07; 5,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,28</t>
+          <t>-0,95; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,04</t>
+          <t>-0,58; 1,59</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 0,91</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 2,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; -0,18</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 0,5</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 3,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 2,76</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,15</t>
+          <t>-0,98; 4,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,42</t>
+          <t>-6,45; -0,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,11</t>
+          <t>-5,8; 0,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,27</t>
+          <t>-0,08; 6,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,44</t>
+          <t>-1,02; 4,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,04</t>
+          <t>-0,6; 1,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 0,94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,79</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 1,86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 2,39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; -0,2</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 0,54</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,9</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1216,12 +2022,12 @@
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
